--- a/HF1R00/Released/BOM/HF1R01.xlsx
+++ b/HF1R00/Released/BOM/HF1R01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Hexabitz\HF1R0x-Hardware\HF1R00\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HEXABITZ\Modules\Hardware\Modules Hardware Design\HF1R0x-Hardware\HF1R00\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBBF21F-763D-4E69-B259-ABE58ED37CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22695" windowHeight="14595"/>
+    <workbookView xWindow="28680" yWindow="-2640" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="H10R4" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="H10R4" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="932" sourceFile="C:\Work\27\Asaad\Modules\H10R4\Delivery\Released\BOM\H10R4.csv" semicolon="1">
       <textFields count="14">
         <textField/>
@@ -44,7 +45,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="H10R41" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="H10R41" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="932" sourceFile="C:\Work\27\Asaad\Modules\H10R4\Delivery\Released\BOM\H10R4.csv" semicolon="1">
       <textFields count="14">
         <textField/>
@@ -162,9 +163,6 @@
     <t>Jumper</t>
   </si>
   <si>
-    <t>JP3</t>
-  </si>
-  <si>
     <t>https://octopart.com/61300211121-w%C3%BCrth+elektronik-20081794?r=sp&amp;s=_qjp-sYDSLeHQoC-C2Sr3Q</t>
   </si>
   <si>
@@ -238,17 +236,20 @@
   </si>
   <si>
     <t>Res Thick Film 0603 1K Ohm 1% 1/10W ±100ppm/°C Molded SMD Punched Carrier T/R</t>
+  </si>
+  <si>
+    <t>JP3 , JP4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -262,7 +263,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -348,7 +349,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="H10R4" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="H10R4" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,6 +428,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -462,6 +480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,23 +672,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="90.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.296875" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" customWidth="1"/>
+    <col min="4" max="4" width="60.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" customWidth="1"/>
+    <col min="8" max="8" width="90.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -738,10 +773,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
@@ -751,7 +786,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,25 +794,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -785,25 +820,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -811,25 +846,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -837,23 +872,23 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -861,31 +896,31 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H8" r:id="rId4"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
